--- a/Test/testfile2.xlsx
+++ b/Test/testfile2.xlsx
@@ -667,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row hidden="1" r="9" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row hidden="1" r="10" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="13" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row hidden="1" r="14" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="17" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -742,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row hidden="1" r="21" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="22" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="23" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row hidden="1" r="24" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="25" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="26" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row hidden="1" r="27" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="28" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="29" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="32" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="33" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="34" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="37" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="38" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="39" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="40" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="41" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>43</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="42" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
@@ -960,7 +960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row hidden="1" r="46" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -971,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row hidden="1" r="47" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -987,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="50" spans="1:3">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row hidden="1" r="51" spans="1:3">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row hidden="1" r="52" spans="1:3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="55" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row hidden="1" r="56" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row hidden="1" r="57" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57" s="6" t="s">
         <v>58</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row hidden="1" r="61" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row hidden="1" r="62" spans="1:3">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row hidden="1" r="63" spans="1:3">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="66" spans="1:3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row hidden="1" r="67" spans="1:3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="70" spans="1:3">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>65</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row hidden="1" r="71" spans="1:3">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>67</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row hidden="1" r="75" spans="1:3">
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row hidden="1" r="76" spans="1:3">
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="79" spans="1:3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row hidden="1" r="80" spans="1:3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row hidden="1" r="83" spans="1:3">
+    <row r="83" spans="1:3">
       <c r="A83" s="6" t="s">
         <v>74</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row hidden="1" r="84" spans="1:3">
+    <row r="84" spans="1:3">
       <c r="A84" s="6" t="s">
         <v>75</v>
       </c>

--- a/Test/testfile2.xlsx
+++ b/Test/testfile2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>General</t>
   </si>
@@ -68,12 +68,21 @@
     <t>Existing 2</t>
   </si>
   <si>
+    <t>E0003</t>
+  </si>
+  <si>
+    <t>&lt;Empty&gt;</t>
+  </si>
+  <si>
     <t>N0001</t>
   </si>
   <si>
     <t>New 1</t>
   </si>
   <si>
+    <t>N0002</t>
+  </si>
+  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -158,13 +167,13 @@
     <t>D0201</t>
   </si>
   <si>
-    <t>Demo Floor 1</t>
+    <t>DEMO FLOOR 1</t>
   </si>
   <si>
     <t>D0202</t>
   </si>
   <si>
-    <t>&lt;Empty&gt;</t>
+    <t>&lt;EMPTY&gt;</t>
   </si>
   <si>
     <t>E0201</t>
@@ -182,6 +191,12 @@
     <t>E0203</t>
   </si>
   <si>
+    <t>E0204</t>
+  </si>
+  <si>
+    <t>EXISTING FLOOR AND FINISH TO REMAIN U.O.N.</t>
+  </si>
+  <si>
     <t>N0201</t>
   </si>
   <si>
@@ -227,10 +242,10 @@
     <t>D0401</t>
   </si>
   <si>
-    <t>Demo 1</t>
-  </si>
-  <si>
     <t>D0402</t>
+  </si>
+  <si>
+    <t>D0403</t>
   </si>
   <si>
     <t>E0401</t>
@@ -606,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,71 +731,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+      <c r="A21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -788,13 +803,13 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -802,18 +817,18 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -821,51 +836,51 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
+      <c r="A33" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -873,45 +888,45 @@
         <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6" t="s">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+      <c r="A38" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -922,7 +937,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -930,10 +945,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -941,274 +956,291 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
+      <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="A46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
+      <c r="A51" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
     </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>12</v>
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="6" t="s">
-        <v>55</v>
+      <c r="A55" t="s">
+        <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" t="n">
+    <row r="60" spans="1:3">
+      <c r="A60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C64" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C65" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="n">
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="4" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C70" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="n">
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="A74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>73</v>
+      <c r="A80" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
@@ -1220,22 +1252,22 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="6" t="s">
-        <v>74</v>
+      <c r="A83" t="s">
+        <v>77</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="6" t="s">
-        <v>75</v>
+      <c r="A84" t="s">
+        <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C84" t="n">
         <v>4</v>
@@ -1243,6 +1275,33 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1250,20 +1309,20 @@
   <mergeCells count="16">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Test/testfile2.xlsx
+++ b/Test/testfile2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>General</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Demo 2</t>
+  </si>
+  <si>
+    <t>DEMO 2</t>
   </si>
   <si>
     <t>DO NOT USE THIS ROW, INSERT NEW ROW AS NEEDED</t>
@@ -621,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,656 +676,1867 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>47</v>
+      <c r="A44" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>12</v>
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
+      <c r="A47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>12</v>
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
+      <c r="A52" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2</v>
+      <c r="A54" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
-        <v>12</v>
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
-        <v>60</v>
+      <c r="A58" t="s">
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="6" t="s">
-        <v>62</v>
+      <c r="A59" t="s">
+        <v>39</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="6" t="s">
-        <v>63</v>
+      <c r="A60" t="s">
+        <v>40</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>64</v>
+      <c r="A63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
-        <v>65</v>
+      <c r="A64" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
-        <v>66</v>
+      <c r="A65" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
-        <v>67</v>
+      <c r="A66" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
-        <v>12</v>
+      <c r="A68" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>68</v>
+      <c r="A69" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>69</v>
+      <c r="A70" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
-        <v>12</v>
+      <c r="A72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" t="n">
-        <v>4</v>
+      <c r="A83" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
         <v>16</v>
       </c>
-      <c r="C84" t="n">
+      <c r="B150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>54</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>56</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>58</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>69</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>70</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="6" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>78</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="6" t="s">
+      <c r="B220" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
-        <v>12</v>
+      <c r="B223" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="31">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A72:C72"/>
     <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A226:C226"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
